--- a/Денис Хохин.xlsx
+++ b/Денис Хохин.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,6 +33,7 @@
     <font>
       <b val="1"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -54,10 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,62 +439,343 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Отчет Январь 2022г.</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n"/>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Хохин Денис.</t>
+        </is>
+      </c>
     </row>
     <row r="3"/>
     <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-    </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Образцы</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Баллы</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Делонги, образцы, шелфтокеры, 6МК</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Браун&amp;Форман, Образец коробки., качель мз металла, 16МК-2</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Триумф, Образец формовкой, Подставка, 21МК</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Дека,образца пластика и печати, 5МК</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Americhip, Образец, бейдж из алюминия, 16 ЮЛ</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Кондуктор Крючок двойной 300мм, шаг 50мм с ЦД</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Кондуктор Крючок двойной 250мм, шаг 50мм с ЦД</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Кондуктор Крючок двойной 200мм, шаг 50мм с ЦД</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Кондуктор Крючок двойной 100мм, шаг 50мм с ЦД</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Кондуктор Крючок двойной 150мм, шаг 50мм с ЦД</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Deka, образец, упоры для гибочных станков, №14 ЮЛ</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Бланк 48 СФ, разработка и образец кондуктора для серии</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>ПосЛайн,корзина из металла,Образец, 25МК-2</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Спектрум, Образец-сигнал, Стойка-метал № 159 ЧЯ</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>27 ШС подготовка чертежей</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Сумма</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>8000</v>
+      </c>
+    </row>
     <row r="21">
-      <c r="A21" s="2" t="n"/>
-      <c r="B21" s="2" t="n"/>
-      <c r="C21" s="2" t="n"/>
-    </row>
-    <row r="22"/>
-    <row r="23"/>
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Задания</t>
+        </is>
+      </c>
+    </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-    </row>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>АртВизаж, РМ картонных коробок, 15 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Луч, Стойка,РМ № 2 ЧЯ</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Диваж, РМ, Перерасчет шкафа по калькуляции, ТЗ 1СФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Экспресс торговли, РМ, Металл Дисплей и струбцина, ТЗ 13СФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>Браун&amp;Форман, Р.М., качель мз металла, 16МК</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Подружка, РМ картонных дисплеев, 27 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Мария, РМ, стойка, № 6ЮО</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>МРМ, РМ, упаковка № 2ЮО</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>Пос Медиа Маркет, РМ ,Стойка № 176 ЧЯ</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>Черноголовка,РМ, дисплей, № 3ЮО</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>АРТ-ВИЗАЖ, РМ картонных подарочных коробов, 5 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>SHU, РМ,Поддон ,№ 149 ЧЯ-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, РМ стойки ЛЕНТА, 273 - 11 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, эскиз стойки ЛЕНТА из металла, 273 - 12 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>БХК " Коломенский", раскрой , контейнер, № 136-6 ЮО</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>1 КК Подружка РМ 2 видов картонных дисплеев</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>Луч, Стойка,Эскиз № 2 ЧЯ-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n"/>
+    </row>
     <row r="45"/>
     <row r="46"/>
     <row r="47"/>

--- a/Денис Хохин.xlsx
+++ b/Денис Хохин.xlsx
@@ -441,7 +441,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Отчет Январь 2022г.</t>
+          <t>Отчет Декабрь 2021г.</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Делонги, образцы, шелфтокеры, 6МК</t>
+          <t>Кондуктор Крючок одинарный 150 мм, шаг 25 мм с ЦД</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
@@ -478,7 +478,7 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Браун&amp;Форман, Образец коробки., качель мз металла, 16МК-2</t>
+          <t>Кондуктор Крючок одинарный 100 мм, шаг 25 мм с ЦД</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
@@ -488,17 +488,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Триумф, Образец формовкой, Подставка, 21МК</t>
+          <t>Кондуктор Крючок одинарный 300мм, шаг 50мм с ЦД</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Дека,образца пластика и печати, 5МК</t>
+          <t>Кондуктор Крючок одинарный 250мм, шаг 50мм с ЦД</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
@@ -508,7 +508,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Americhip, Образец, бейдж из алюминия, 16 ЮЛ</t>
+          <t>Кондуктор Крючок одинарный 200мм, шаг 50мм с ЦД</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
@@ -518,7 +518,7 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Кондуктор Крючок двойной 300мм, шаг 50мм с ЦД</t>
+          <t>Кондуктор Крючок одинарный 100мм, шаг 50мм с ЦД</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
@@ -528,7 +528,7 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Кондуктор Крючок двойной 250мм, шаг 50мм с ЦД</t>
+          <t>694КК разработка чертежей и кондуктора</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
@@ -538,7 +538,7 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Кондуктор Крючок двойной 200мм, шаг 50мм с ЦД</t>
+          <t>Кондуктор Крючок одинарный 215 мм, шаг 50 мм с ЦД</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
@@ -548,224 +548,264 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Кондуктор Крючок двойной 100мм, шаг 50мм с ЦД</t>
+          <t>Кондуктор Крючок одинарный 100 мм, шаг 25 мм без ЦД диаметр прутка 4</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Кондуктор Крючок двойной 150мм, шаг 50мм с ЦД</t>
+          <t>Кондуктор Крючок одинарный 100 мм, шаг 25 мм без ЦД диаметр прутка 3</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Deka, образец, упоры для гибочных станков, №14 ЮЛ</t>
+          <t>Кондуктор Крючок одинарный 150 мм, шаг 25 мм без ЦД</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Бланк 48 СФ, разработка и образец кондуктора для серии</t>
+          <t>Кондуктор Крючок одинарный 250мм, шаг 50мм без ЦД</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>ПосЛайн,корзина из металла,Образец, 25МК-2</t>
+          <t>Кондуктор Крючок одинарный 200мм, шаг 50мм без ЦД</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Спектрум, Образец-сигнал, Стойка-метал № 159 ЧЯ</t>
+          <t>Navigator, образец, стойка, № 137-4 ЮО</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>27 ШС подготовка чертежей</t>
+          <t>Кондуктор Крючок одинарный 150мм, шаг 50мм без ЦД</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Сумма</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>8000</v>
-      </c>
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Кондуктор для Крючок одинарный 100мм, шаг 50мм без ЦД</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n"/>
-      <c r="B21" s="3" t="n"/>
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Кондуктор для Крючок одинарный 50мм, шаг 50мм без ЦД</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="C21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n"/>
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Кондуктор Крючок двойной 300мм, шаг 50мм без ЦД</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Задания</t>
-        </is>
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Кондуктор Крючок двойной 250мм, шаг 50мм без ЦД</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>АртВизаж, РМ картонных коробок, 15 КК</t>
-        </is>
+          <t>Кондуктор Крючок двойной 200мм, шаг 50мм без ЦД</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Луч, Стойка,РМ № 2 ЧЯ</t>
-        </is>
+          <t>Кондуктор Крючок двойной 100мм, шаг 50мм без ЦД</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Диваж, РМ, Перерасчет шкафа по калькуляции, ТЗ 1СФ</t>
-        </is>
+          <t>Navigator, образец, стойка, № 137-3 ЮО</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Экспресс торговли, РМ, Металл Дисплей и струбцина, ТЗ 13СФ</t>
-        </is>
+          <t>26 ШС доработка кондуктора и чертежа для заказа 672 КК</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Браун&amp;Форман, Р.М., качель мз металла, 16МК</t>
-        </is>
+          <t>№23 ШС образец таблиц</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Подружка, РМ картонных дисплеев, 27 КК</t>
-        </is>
+          <t>18 ШС-1 подготовка файлов для раскроя</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Мария, РМ, стойка, № 6ЮО</t>
-        </is>
+          <t>DEKA, образец к POPAI 2022, 19 Украли сахар изделие из картона , 39 АН</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>МРМ, РМ, упаковка № 2ЮО</t>
-        </is>
+          <t>ПосЛайн,корзина из металла,Образец, 25МК-1</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>Пос Медиа Маркет, РМ ,Стойка № 176 ЧЯ</t>
-        </is>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Сумма</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>9400</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>Черноголовка,РМ, дисплей, № 3ЮО</t>
-        </is>
-      </c>
+      <c r="A33" s="3" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>АРТ-ВИЗАЖ, РМ картонных подарочных коробов, 5 КК</t>
-        </is>
-      </c>
+      <c r="A34" s="3" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>SHU, РМ,Поддон ,№ 149 ЧЯ-5</t>
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Задания</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Градиент, РМ стойки ЛЕНТА, 273 - 11 КК</t>
+          <t>Лореаль, РМ, Тендер Стеллажи Подружка, ТЗ 233СФ</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Градиент, эскиз стойки ЛЕНТА из металла, 273 - 12 КК</t>
+          <t>ADMGroup, РМ, металлическая стойка BUD, 15 ЮЛ</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>БХК " Коломенский", раскрой , контейнер, № 136-6 ЮО</t>
+          <t>Americhip, Р.М., бейдж из алюминия, 16 ЮЛ-1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>1 КК Подружка РМ 2 видов картонных дисплеев</t>
+          <t>Феникс+, РМ, шоубоксы, № 148 ЮО</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Луч, Стойка,Эскиз № 2 ЧЯ-1</t>
+          <t>БХК " Коломенский", РМ , топпер, № 136-5 ЮО</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n"/>
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Navigator, РМ, стойка, № 137-2 ЮО</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n"/>
